--- a/labor_planner/tests/data/outputs/projects.xlsx
+++ b/labor_planner/tests/data/outputs/projects.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="49">
   <si>
     <t>Quarter 2 - FY18</t>
   </si>
@@ -44,78 +44,93 @@
     <t>Project ID:</t>
   </si>
   <si>
+    <t>59534</t>
+  </si>
+  <si>
+    <t>Project Title:</t>
+  </si>
+  <si>
+    <t>Please Please Me</t>
+  </si>
+  <si>
+    <t>Project Manager:</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Funding Probability:</t>
+  </si>
+  <si>
+    <t>Technical Group</t>
+  </si>
+  <si>
+    <t>Wkg Hrs Available =</t>
+  </si>
+  <si>
+    <t>Processing Month =</t>
+  </si>
+  <si>
+    <t>Dec 27-Jan 23</t>
+  </si>
+  <si>
+    <t>Jan 24-Feb 20</t>
+  </si>
+  <si>
+    <t>Feb 21-Mar 27</t>
+  </si>
+  <si>
+    <t>Mar 28-Apr 24</t>
+  </si>
+  <si>
+    <t>Apr 25-May 22</t>
+  </si>
+  <si>
+    <t>May 23-Jun 26</t>
+  </si>
+  <si>
+    <t>Jun 27-Jul 24</t>
+  </si>
+  <si>
+    <t>Jul 25-Aug 21</t>
+  </si>
+  <si>
+    <t>Aug 22-Sep 30</t>
+  </si>
+  <si>
+    <t>Oct 1-Oct 23</t>
+  </si>
+  <si>
+    <t>Oct 24-Nov 20</t>
+  </si>
+  <si>
+    <t>Nov 21-Dec 25</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Dec 27, 2018 - Dec 25, 2019</t>
+  </si>
+  <si>
+    <t>Percent Covered</t>
+  </si>
+  <si>
+    <t>Harrison_George</t>
+  </si>
+  <si>
+    <t>68344</t>
+  </si>
+  <si>
+    <t>With the Beatles</t>
+  </si>
+  <si>
     <t>84392</t>
   </si>
   <si>
-    <t>Project Title:</t>
-  </si>
-  <si>
     <t>Meet the Beatles!</t>
   </si>
   <si>
-    <t>Project Manager:</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Funding Probability:</t>
-  </si>
-  <si>
-    <t>Technical Group</t>
-  </si>
-  <si>
-    <t>Wkg Hrs Available =</t>
-  </si>
-  <si>
-    <t>Processing Month =</t>
-  </si>
-  <si>
-    <t>Dec 27-Jan 23</t>
-  </si>
-  <si>
-    <t>Jan 24-Feb 20</t>
-  </si>
-  <si>
-    <t>Feb 21-Mar 27</t>
-  </si>
-  <si>
-    <t>Mar 28-Apr 24</t>
-  </si>
-  <si>
-    <t>Apr 25-May 22</t>
-  </si>
-  <si>
-    <t>May 23-Jun 26</t>
-  </si>
-  <si>
-    <t>Jun 27-Jul 24</t>
-  </si>
-  <si>
-    <t>Jul 25-Aug 21</t>
-  </si>
-  <si>
-    <t>Aug 22-Sep 30</t>
-  </si>
-  <si>
-    <t>Oct 1-Oct 23</t>
-  </si>
-  <si>
-    <t>Oct 24-Nov 20</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Dec 27, 2018 - Dec 25, 2019</t>
-  </si>
-  <si>
-    <t>Percent Covered</t>
-  </si>
-  <si>
-    <t>Harrison_George</t>
-  </si>
-  <si>
     <t>Lennon_John</t>
   </si>
   <si>
@@ -129,18 +144,6 @@
   </si>
   <si>
     <t>Twist and Shout</t>
-  </si>
-  <si>
-    <t>59534</t>
-  </si>
-  <si>
-    <t>Please Please Me</t>
-  </si>
-  <si>
-    <t>68344</t>
-  </si>
-  <si>
-    <t>With the Beatles</t>
   </si>
   <si>
     <t>74589</t>
@@ -550,7 +553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -599,7 +602,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,7 +669,7 @@
         <v>12</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="6"/>
     </row>
@@ -714,7 +717,7 @@
         <v>2026</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -754,197 +757,59 @@
       <c r="L12" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="M12" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="N12" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="G13">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="I13">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="J13">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="K13">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="L13">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="M13">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="N13">
-        <v>96</v>
+        <v>1013</v>
       </c>
       <c r="O13" s="8">
-        <v>0.04738400789733465</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14">
-        <v>88</v>
-      </c>
-      <c r="C14">
-        <v>80</v>
-      </c>
-      <c r="D14">
-        <v>80</v>
-      </c>
-      <c r="E14">
-        <v>80</v>
-      </c>
-      <c r="F14">
-        <v>96</v>
-      </c>
-      <c r="G14">
-        <v>80</v>
-      </c>
-      <c r="H14">
-        <v>77</v>
-      </c>
-      <c r="I14">
-        <v>100</v>
-      </c>
-      <c r="J14">
-        <v>100</v>
-      </c>
-      <c r="K14">
-        <v>80</v>
-      </c>
-      <c r="L14">
-        <v>72</v>
-      </c>
-      <c r="M14">
-        <v>80</v>
-      </c>
-      <c r="N14">
-        <v>1013</v>
-      </c>
-      <c r="O14" s="8">
         <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>20</v>
-      </c>
-      <c r="O15" s="8">
-        <v>0.009871668311944718</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>2</v>
-      </c>
-      <c r="M16">
-        <v>2</v>
-      </c>
-      <c r="N16">
-        <v>4</v>
-      </c>
-      <c r="O16" s="8">
-        <v>0.001974333662388944</v>
       </c>
     </row>
   </sheetData>
@@ -960,7 +825,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -985,7 +850,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -993,7 +858,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1009,7 +874,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1076,7 +941,7 @@
         <v>12</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="6"/>
     </row>
@@ -1124,7 +989,7 @@
         <v>2026</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1164,197 +1029,59 @@
       <c r="L12" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="M12" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="N12" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="G13">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="I13">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="J13">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="K13">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="L13">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="M13">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="N13">
-        <v>96</v>
+        <v>1013</v>
       </c>
       <c r="O13" s="8">
-        <v>0.04738400789733465</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
-      <c r="J14">
-        <v>2</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>2</v>
-      </c>
-      <c r="M14">
-        <v>2</v>
-      </c>
-      <c r="N14">
-        <v>24</v>
-      </c>
-      <c r="O14" s="8">
-        <v>0.01184600197433366</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15">
-        <v>88</v>
-      </c>
-      <c r="C15">
-        <v>80</v>
-      </c>
-      <c r="D15">
-        <v>80</v>
-      </c>
-      <c r="E15">
-        <v>80</v>
-      </c>
-      <c r="F15">
-        <v>96</v>
-      </c>
-      <c r="G15">
-        <v>80</v>
-      </c>
-      <c r="H15">
-        <v>77</v>
-      </c>
-      <c r="I15">
-        <v>100</v>
-      </c>
-      <c r="J15">
-        <v>100</v>
-      </c>
-      <c r="K15">
-        <v>80</v>
-      </c>
-      <c r="L15">
-        <v>72</v>
-      </c>
-      <c r="M15">
-        <v>80</v>
-      </c>
-      <c r="N15">
-        <v>1013</v>
-      </c>
-      <c r="O15" s="8">
         <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>2</v>
-      </c>
-      <c r="M16">
-        <v>2</v>
-      </c>
-      <c r="N16">
-        <v>4</v>
-      </c>
-      <c r="O16" s="8">
-        <v>0.001974333662388944</v>
       </c>
     </row>
   </sheetData>
@@ -1370,7 +1097,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1395,7 +1122,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1403,7 +1130,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1419,7 +1146,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1486,7 +1213,7 @@
         <v>12</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="6"/>
     </row>
@@ -1534,7 +1261,7 @@
         <v>2026</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1574,56 +1301,200 @@
       <c r="L12" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="M12" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="N12" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="J13">
+        <v>8</v>
+      </c>
+      <c r="K13">
+        <v>8</v>
+      </c>
+      <c r="L13">
+        <v>8</v>
+      </c>
+      <c r="M13">
+        <v>8</v>
+      </c>
+      <c r="N13">
+        <v>96</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0.04738400789733465</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14">
         <v>88</v>
       </c>
-      <c r="C13">
-        <v>80</v>
-      </c>
-      <c r="D13">
-        <v>80</v>
-      </c>
-      <c r="E13">
-        <v>80</v>
-      </c>
-      <c r="F13">
+      <c r="C14">
+        <v>80</v>
+      </c>
+      <c r="D14">
+        <v>80</v>
+      </c>
+      <c r="E14">
+        <v>80</v>
+      </c>
+      <c r="F14">
         <v>96</v>
       </c>
-      <c r="G13">
-        <v>80</v>
-      </c>
-      <c r="H13">
+      <c r="G14">
+        <v>80</v>
+      </c>
+      <c r="H14">
         <v>77</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>100</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>100</v>
       </c>
-      <c r="K13">
-        <v>80</v>
-      </c>
-      <c r="L13">
+      <c r="K14">
+        <v>80</v>
+      </c>
+      <c r="L14">
         <v>72</v>
       </c>
-      <c r="M13">
-        <v>80</v>
-      </c>
-      <c r="N13">
+      <c r="M14">
+        <v>80</v>
+      </c>
+      <c r="N14">
         <v>1013</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O14" s="8">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>20</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0.009871668311944718</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>4</v>
+      </c>
+      <c r="O16" s="8">
+        <v>0.001974333662388944</v>
       </c>
     </row>
   </sheetData>
@@ -1639,7 +1510,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1664,7 +1535,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1672,7 +1543,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1688,7 +1559,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1755,7 +1626,7 @@
         <v>12</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="6"/>
     </row>
@@ -1803,7 +1674,7 @@
         <v>2026</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1843,56 +1714,200 @@
       <c r="L12" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="M12" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="N12" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="J13">
+        <v>8</v>
+      </c>
+      <c r="K13">
+        <v>8</v>
+      </c>
+      <c r="L13">
+        <v>8</v>
+      </c>
+      <c r="M13">
+        <v>8</v>
+      </c>
+      <c r="N13">
+        <v>96</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0.04738400789733465</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>24</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0.01184600197433366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
         <v>88</v>
       </c>
-      <c r="C13">
-        <v>80</v>
-      </c>
-      <c r="D13">
-        <v>80</v>
-      </c>
-      <c r="E13">
-        <v>80</v>
-      </c>
-      <c r="F13">
+      <c r="C15">
+        <v>80</v>
+      </c>
+      <c r="D15">
+        <v>80</v>
+      </c>
+      <c r="E15">
+        <v>80</v>
+      </c>
+      <c r="F15">
         <v>96</v>
       </c>
-      <c r="G13">
-        <v>80</v>
-      </c>
-      <c r="H13">
+      <c r="G15">
+        <v>80</v>
+      </c>
+      <c r="H15">
         <v>77</v>
       </c>
-      <c r="I13">
+      <c r="I15">
         <v>100</v>
       </c>
-      <c r="J13">
+      <c r="J15">
         <v>100</v>
       </c>
-      <c r="K13">
-        <v>80</v>
-      </c>
-      <c r="L13">
+      <c r="K15">
+        <v>80</v>
+      </c>
+      <c r="L15">
         <v>72</v>
       </c>
-      <c r="M13">
-        <v>80</v>
-      </c>
-      <c r="N13">
+      <c r="M15">
+        <v>80</v>
+      </c>
+      <c r="N15">
         <v>1013</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O15" s="8">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>4</v>
+      </c>
+      <c r="O16" s="8">
+        <v>0.001974333662388944</v>
       </c>
     </row>
   </sheetData>
@@ -1933,7 +1948,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1941,7 +1956,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2024,7 +2039,7 @@
         <v>12</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="6"/>
     </row>
@@ -2072,7 +2087,7 @@
         <v>2026</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -2112,14 +2127,17 @@
       <c r="L12" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="M12" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="N12" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -2166,7 +2184,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -2213,7 +2231,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>88</v>
@@ -2296,7 +2314,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2304,7 +2322,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2387,7 +2405,7 @@
         <v>12</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="6"/>
     </row>
@@ -2435,7 +2453,7 @@
         <v>2026</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -2475,14 +2493,17 @@
       <c r="L12" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="M12" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="N12" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>88</v>
@@ -2529,7 +2550,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -2612,7 +2633,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2620,7 +2641,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2703,7 +2724,7 @@
         <v>12</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="6"/>
     </row>
@@ -2751,7 +2772,7 @@
         <v>2026</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -2791,14 +2812,17 @@
       <c r="L12" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="M12" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="N12" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -2845,7 +2869,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -2928,7 +2952,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2936,7 +2960,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -3019,7 +3043,7 @@
         <v>12</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="6"/>
     </row>
@@ -3067,7 +3091,7 @@
         <v>2026</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -3107,14 +3131,17 @@
       <c r="L12" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="M12" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="N12" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -3161,7 +3188,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B14">
         <v>4</v>
